--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2750.330184109723</v>
+        <v>2879.745449695955</v>
       </c>
       <c r="AB2" t="n">
-        <v>3763.123093903396</v>
+        <v>3940.194769677058</v>
       </c>
       <c r="AC2" t="n">
-        <v>3403.975907397547</v>
+        <v>3564.148110957022</v>
       </c>
       <c r="AD2" t="n">
-        <v>2750330.184109723</v>
+        <v>2879745.449695955</v>
       </c>
       <c r="AE2" t="n">
-        <v>3763123.093903396</v>
+        <v>3940194.769677057</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.006456665359711e-06</v>
+        <v>1.450972758902325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3403975.907397547</v>
+        <v>3564148.110957022</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>938.8206892302491</v>
+        <v>1007.802380248096</v>
       </c>
       <c r="AB3" t="n">
-        <v>1284.535884850512</v>
+        <v>1378.919677758556</v>
       </c>
       <c r="AC3" t="n">
-        <v>1161.941582857815</v>
+        <v>1247.317519039201</v>
       </c>
       <c r="AD3" t="n">
-        <v>938820.689230249</v>
+        <v>1007802.380248097</v>
       </c>
       <c r="AE3" t="n">
-        <v>1284535.884850512</v>
+        <v>1378919.677758556</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.884389150087171e-06</v>
+        <v>2.716656780220515e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.12916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1161941.582857815</v>
+        <v>1247317.519039201</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>702.7418098052511</v>
+        <v>763.1753843736357</v>
       </c>
       <c r="AB4" t="n">
-        <v>961.5223469561275</v>
+        <v>1044.210229821734</v>
       </c>
       <c r="AC4" t="n">
-        <v>869.7560036677236</v>
+        <v>944.5522710458093</v>
       </c>
       <c r="AD4" t="n">
-        <v>702741.8098052512</v>
+        <v>763175.3843736356</v>
       </c>
       <c r="AE4" t="n">
-        <v>961522.3469561276</v>
+        <v>1044210.229821734</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.210732614416737e-06</v>
+        <v>3.187134539557303e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.74791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>869756.0036677236</v>
+        <v>944552.2710458094</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>599.1700614715606</v>
+        <v>659.5182951853735</v>
       </c>
       <c r="AB5" t="n">
-        <v>819.8109116229181</v>
+        <v>902.3820273663273</v>
       </c>
       <c r="AC5" t="n">
-        <v>741.5693088294672</v>
+        <v>816.2599531756141</v>
       </c>
       <c r="AD5" t="n">
-        <v>599170.0614715606</v>
+        <v>659518.2951853735</v>
       </c>
       <c r="AE5" t="n">
-        <v>819810.9116229181</v>
+        <v>902382.0273663272</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.387544540553274e-06</v>
+        <v>3.442038001477816e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.72916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>741569.3088294672</v>
+        <v>816259.9531756141</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>552.3808237397793</v>
+        <v>604.0957791666597</v>
       </c>
       <c r="AB6" t="n">
-        <v>755.7918123628098</v>
+        <v>826.5504958806807</v>
       </c>
       <c r="AC6" t="n">
-        <v>683.6601025513733</v>
+        <v>747.6656766247346</v>
       </c>
       <c r="AD6" t="n">
-        <v>552380.8237397793</v>
+        <v>604095.7791666597</v>
       </c>
       <c r="AE6" t="n">
-        <v>755791.8123628098</v>
+        <v>826550.4958806807</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.473616352781456e-06</v>
+        <v>3.566124670234501e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.2875</v>
       </c>
       <c r="AH6" t="n">
-        <v>683660.1025513733</v>
+        <v>747665.6766247347</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>551.0385809206576</v>
+        <v>602.753536347538</v>
       </c>
       <c r="AB7" t="n">
-        <v>753.9552965221136</v>
+        <v>824.7139800399844</v>
       </c>
       <c r="AC7" t="n">
-        <v>681.9988612049472</v>
+        <v>746.0044352783084</v>
       </c>
       <c r="AD7" t="n">
-        <v>551038.5809206576</v>
+        <v>602753.536347538</v>
       </c>
       <c r="AE7" t="n">
-        <v>753955.2965221136</v>
+        <v>824713.9800399845</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.480181152019199e-06</v>
+        <v>3.575588907682045e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.25416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>681998.8612049471</v>
+        <v>746004.4352783083</v>
       </c>
     </row>
   </sheetData>
@@ -3379,28 +3379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1663.811972648407</v>
+        <v>1764.821055308443</v>
       </c>
       <c r="AB2" t="n">
-        <v>2276.500943181316</v>
+        <v>2414.706026283</v>
       </c>
       <c r="AC2" t="n">
-        <v>2059.234888253231</v>
+        <v>2184.249872195744</v>
       </c>
       <c r="AD2" t="n">
-        <v>1663811.972648407</v>
+        <v>1764821.055308443</v>
       </c>
       <c r="AE2" t="n">
-        <v>2276500.943181315</v>
+        <v>2414706.026283001</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.325942697465975e-06</v>
+        <v>1.941130228514351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.71041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2059234.888253231</v>
+        <v>2184249.872195744</v>
       </c>
     </row>
     <row r="3">
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>720.5304240899853</v>
+        <v>787.7844716754379</v>
       </c>
       <c r="AB3" t="n">
-        <v>985.8615137987761</v>
+        <v>1077.881468744368</v>
       </c>
       <c r="AC3" t="n">
-        <v>891.7722745871448</v>
+        <v>975.009974183548</v>
       </c>
       <c r="AD3" t="n">
-        <v>720530.4240899853</v>
+        <v>787784.4716754379</v>
       </c>
       <c r="AE3" t="n">
-        <v>985861.5137987761</v>
+        <v>1077881.468744369</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.141640430200279e-06</v>
+        <v>3.135281023542813e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.68125</v>
       </c>
       <c r="AH3" t="n">
-        <v>891772.2745871448</v>
+        <v>975009.974183548</v>
       </c>
     </row>
     <row r="4">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>554.5736584664148</v>
+        <v>613.4102824968644</v>
       </c>
       <c r="AB4" t="n">
-        <v>758.7921455768328</v>
+        <v>839.2950102639518</v>
       </c>
       <c r="AC4" t="n">
-        <v>686.3740881744442</v>
+        <v>759.1938724423046</v>
       </c>
       <c r="AD4" t="n">
-        <v>554573.6584664148</v>
+        <v>613410.2824968644</v>
       </c>
       <c r="AE4" t="n">
-        <v>758792.1455768328</v>
+        <v>839295.0102639517</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.439698343641583e-06</v>
+        <v>3.571626596194286e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.8875</v>
       </c>
       <c r="AH4" t="n">
-        <v>686374.0881744442</v>
+        <v>759193.8724423046</v>
       </c>
     </row>
     <row r="5">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>514.3333508999855</v>
+        <v>564.752640883983</v>
       </c>
       <c r="AB5" t="n">
-        <v>703.7335814873674</v>
+        <v>772.7194783855607</v>
       </c>
       <c r="AC5" t="n">
-        <v>636.5702361664972</v>
+        <v>698.9722158870414</v>
       </c>
       <c r="AD5" t="n">
-        <v>514333.3508999855</v>
+        <v>564752.640883983</v>
       </c>
       <c r="AE5" t="n">
-        <v>703733.5814873674</v>
+        <v>772719.4783855607</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.526927444385418e-06</v>
+        <v>3.699326718215831e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.44166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>636570.2361664972</v>
+        <v>698972.2158870414</v>
       </c>
     </row>
     <row r="6">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>516.3942098296531</v>
+        <v>566.8134998136507</v>
       </c>
       <c r="AB6" t="n">
-        <v>706.5533395936177</v>
+        <v>775.5392364918113</v>
       </c>
       <c r="AC6" t="n">
-        <v>639.1208805166425</v>
+        <v>701.5228602371866</v>
       </c>
       <c r="AD6" t="n">
-        <v>516394.209829653</v>
+        <v>566813.4998136506</v>
       </c>
       <c r="AE6" t="n">
-        <v>706553.3395936177</v>
+        <v>775539.2364918112</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.526625613586997e-06</v>
+        <v>3.6988848492815e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.44375</v>
       </c>
       <c r="AH6" t="n">
-        <v>639120.8805166425</v>
+        <v>701522.8602371865</v>
       </c>
     </row>
   </sheetData>
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>516.6850709816282</v>
+        <v>578.7380400009754</v>
       </c>
       <c r="AB2" t="n">
-        <v>706.9513086536385</v>
+        <v>791.8549184496936</v>
       </c>
       <c r="AC2" t="n">
-        <v>639.4808679681281</v>
+        <v>716.2813964082122</v>
       </c>
       <c r="AD2" t="n">
-        <v>516685.0709816281</v>
+        <v>578738.0400009754</v>
       </c>
       <c r="AE2" t="n">
-        <v>706951.3086536386</v>
+        <v>791854.9184496936</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.377970758913423e-06</v>
+        <v>3.679014283901803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.75416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>639480.8679681281</v>
+        <v>716281.3964082123</v>
       </c>
     </row>
     <row r="3">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>453.7297446406575</v>
+        <v>508.1007657803366</v>
       </c>
       <c r="AB3" t="n">
-        <v>620.8130537609431</v>
+        <v>695.2058835644141</v>
       </c>
       <c r="AC3" t="n">
-        <v>561.5635272265913</v>
+        <v>628.8564097646114</v>
       </c>
       <c r="AD3" t="n">
-        <v>453729.7446406576</v>
+        <v>508100.7657803366</v>
       </c>
       <c r="AE3" t="n">
-        <v>620813.0537609431</v>
+        <v>695205.8835644141</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.541655170616833e-06</v>
+        <v>3.932254272851067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.80416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>561563.5272265912</v>
+        <v>628856.4097646114</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>803.6935313887691</v>
+        <v>875.7161287938783</v>
       </c>
       <c r="AB2" t="n">
-        <v>1099.648946102328</v>
+        <v>1198.193441284745</v>
       </c>
       <c r="AC2" t="n">
-        <v>994.6999940533104</v>
+        <v>1083.839540923585</v>
       </c>
       <c r="AD2" t="n">
-        <v>803693.531388769</v>
+        <v>875716.1287938782</v>
       </c>
       <c r="AE2" t="n">
-        <v>1099648.946102328</v>
+        <v>1198193.441284745</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.944668930484976e-06</v>
+        <v>2.9389664252535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.25833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>994699.9940533105</v>
+        <v>1083839.540923585</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>476.5799766821344</v>
+        <v>524.7088592611531</v>
       </c>
       <c r="AB3" t="n">
-        <v>652.0777493211825</v>
+        <v>717.9298097622404</v>
       </c>
       <c r="AC3" t="n">
-        <v>589.8443641228373</v>
+        <v>649.4115963393479</v>
       </c>
       <c r="AD3" t="n">
-        <v>476579.9766821344</v>
+        <v>524708.859261153</v>
       </c>
       <c r="AE3" t="n">
-        <v>652077.7493211825</v>
+        <v>717929.8097622404</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.558308559034166e-06</v>
+        <v>3.866356294675303e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.11875</v>
       </c>
       <c r="AH3" t="n">
-        <v>589844.3641228373</v>
+        <v>649411.5963393479</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>474.0281229617954</v>
+        <v>522.157005540814</v>
       </c>
       <c r="AB4" t="n">
-        <v>648.5861904811741</v>
+        <v>714.438250922232</v>
       </c>
       <c r="AC4" t="n">
-        <v>586.6860347580856</v>
+        <v>646.253266974596</v>
       </c>
       <c r="AD4" t="n">
-        <v>474028.1229617954</v>
+        <v>522157.005540814</v>
       </c>
       <c r="AE4" t="n">
-        <v>648586.190481174</v>
+        <v>714438.2509222319</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.571196763361794e-06</v>
+        <v>3.885834160139663e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.05416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>586686.0347580856</v>
+        <v>646253.2669745961</v>
       </c>
     </row>
   </sheetData>
@@ -5012,28 +5012,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>452.6022564932078</v>
+        <v>512.9874087357655</v>
       </c>
       <c r="AB2" t="n">
-        <v>619.2703747363358</v>
+        <v>701.8920040395038</v>
       </c>
       <c r="AC2" t="n">
-        <v>560.1680793229289</v>
+        <v>634.9044162855877</v>
       </c>
       <c r="AD2" t="n">
-        <v>452602.2564932078</v>
+        <v>512987.4087357654</v>
       </c>
       <c r="AE2" t="n">
-        <v>619270.3747363358</v>
+        <v>701892.0040395039</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.459228892197847e-06</v>
+        <v>3.886781729622066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.81666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>560168.0793229289</v>
+        <v>634904.4162855877</v>
       </c>
     </row>
     <row r="3">
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>455.4555491683423</v>
+        <v>515.8407014108999</v>
       </c>
       <c r="AB3" t="n">
-        <v>623.1743756528437</v>
+        <v>705.7960049560118</v>
       </c>
       <c r="AC3" t="n">
-        <v>563.6994878712648</v>
+        <v>638.4358248339237</v>
       </c>
       <c r="AD3" t="n">
-        <v>455455.5491683423</v>
+        <v>515840.7014108999</v>
       </c>
       <c r="AE3" t="n">
-        <v>623174.3756528436</v>
+        <v>705796.0049560118</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.4622021438277e-06</v>
+        <v>3.891480918115315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.79791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>563699.4878712648</v>
+        <v>638435.8248339237</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1879.340516847113</v>
+        <v>1981.030798184948</v>
       </c>
       <c r="AB2" t="n">
-        <v>2571.396605802282</v>
+        <v>2710.533734987297</v>
       </c>
       <c r="AC2" t="n">
-        <v>2325.986122722315</v>
+        <v>2451.844199578099</v>
       </c>
       <c r="AD2" t="n">
-        <v>1879340.516847113</v>
+        <v>1981030.798184948</v>
       </c>
       <c r="AE2" t="n">
-        <v>2571396.605802283</v>
+        <v>2710533.734987297</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.242392735323736e-06</v>
+        <v>1.81126733426798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.07916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2325986.122722315</v>
+        <v>2451844.199578099</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>777.2238265214705</v>
+        <v>836.5431945971038</v>
       </c>
       <c r="AB3" t="n">
-        <v>1063.431928141928</v>
+        <v>1144.595304528832</v>
       </c>
       <c r="AC3" t="n">
-        <v>961.9394774561468</v>
+        <v>1035.356735114199</v>
       </c>
       <c r="AD3" t="n">
-        <v>777223.8265214706</v>
+        <v>836543.1945971039</v>
       </c>
       <c r="AE3" t="n">
-        <v>1063431.928141928</v>
+        <v>1144595.304528832</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.072598835453995e-06</v>
+        <v>3.021613424616066e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.03333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>961939.4774561469</v>
+        <v>1035356.735114199</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>597.1591134931166</v>
+        <v>648.0042989163096</v>
       </c>
       <c r="AB4" t="n">
-        <v>817.0594438820476</v>
+        <v>886.6280697093288</v>
       </c>
       <c r="AC4" t="n">
-        <v>739.0804373080759</v>
+        <v>802.0095311265811</v>
       </c>
       <c r="AD4" t="n">
-        <v>597159.1134931166</v>
+        <v>648004.2989163096</v>
       </c>
       <c r="AE4" t="n">
-        <v>817059.4438820477</v>
+        <v>886628.0697093288</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.379046736582963e-06</v>
+        <v>3.46837961793677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.09583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>739080.437308076</v>
+        <v>802009.5311265811</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>526.7341833518361</v>
+        <v>577.4940279204575</v>
       </c>
       <c r="AB5" t="n">
-        <v>720.7009475341057</v>
+        <v>790.1528062391894</v>
       </c>
       <c r="AC5" t="n">
-        <v>651.9182606115828</v>
+        <v>714.7417313981491</v>
       </c>
       <c r="AD5" t="n">
-        <v>526734.1833518362</v>
+        <v>577494.0279204575</v>
       </c>
       <c r="AE5" t="n">
-        <v>720700.9475341057</v>
+        <v>790152.8062391895</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.508116789620689e-06</v>
+        <v>3.656549078569161e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.42291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>651918.2606115828</v>
+        <v>714741.7313981492</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>523.624429420388</v>
+        <v>574.3842739890093</v>
       </c>
       <c r="AB6" t="n">
-        <v>716.4460450124375</v>
+        <v>785.8979037175211</v>
       </c>
       <c r="AC6" t="n">
-        <v>648.0694400147894</v>
+        <v>710.8929108013556</v>
       </c>
       <c r="AD6" t="n">
-        <v>523624.429420388</v>
+        <v>574384.2739890093</v>
       </c>
       <c r="AE6" t="n">
-        <v>716446.0450124375</v>
+        <v>785897.9037175211</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.515295656997063e-06</v>
+        <v>3.667015050887069e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.3875</v>
       </c>
       <c r="AH6" t="n">
-        <v>648069.4400147893</v>
+        <v>710892.9108013556</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>460.2993656279958</v>
+        <v>519.7822614763462</v>
       </c>
       <c r="AB2" t="n">
-        <v>629.8018990270419</v>
+        <v>711.189021326913</v>
       </c>
       <c r="AC2" t="n">
-        <v>569.6944897164173</v>
+        <v>643.3141392915321</v>
       </c>
       <c r="AD2" t="n">
-        <v>460299.3656279958</v>
+        <v>519782.2614763462</v>
       </c>
       <c r="AE2" t="n">
-        <v>629801.899027042</v>
+        <v>711189.021326913</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.376046667320841e-06</v>
+        <v>3.806984888892893e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.69375</v>
       </c>
       <c r="AH2" t="n">
-        <v>569694.4897164173</v>
+        <v>643314.1392915321</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1166.684085269315</v>
+        <v>1248.930962143023</v>
       </c>
       <c r="AB2" t="n">
-        <v>1596.308635934716</v>
+        <v>1708.842441349446</v>
       </c>
       <c r="AC2" t="n">
-        <v>1443.959180154347</v>
+        <v>1545.752917122484</v>
       </c>
       <c r="AD2" t="n">
-        <v>1166684.085269315</v>
+        <v>1248930.962143023</v>
       </c>
       <c r="AE2" t="n">
-        <v>1596308.635934716</v>
+        <v>1708842.441349446</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.607451750305184e-06</v>
+        <v>2.386813796154516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.15208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1443959.180154348</v>
+        <v>1545752.917122484</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>575.5450786066247</v>
+        <v>633.1775683604349</v>
       </c>
       <c r="AB3" t="n">
-        <v>787.4861678064276</v>
+        <v>866.3414828535936</v>
       </c>
       <c r="AC3" t="n">
-        <v>712.3295931947597</v>
+        <v>783.6590676479537</v>
       </c>
       <c r="AD3" t="n">
-        <v>575545.0786066246</v>
+        <v>633177.5683604348</v>
       </c>
       <c r="AE3" t="n">
-        <v>787486.1678064276</v>
+        <v>866341.4828535935</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.370439343528974e-06</v>
+        <v>3.519730733447049e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.66458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>712329.5931947597</v>
+        <v>783659.0676479538</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>488.6906946416756</v>
+        <v>546.2378435409144</v>
       </c>
       <c r="AB4" t="n">
-        <v>668.6481679205951</v>
+        <v>747.3867158455632</v>
       </c>
       <c r="AC4" t="n">
-        <v>604.8333252278504</v>
+        <v>676.0571766491057</v>
       </c>
       <c r="AD4" t="n">
-        <v>488690.6946416756</v>
+        <v>546237.8435409144</v>
       </c>
       <c r="AE4" t="n">
-        <v>668648.1679205952</v>
+        <v>747386.7158455632</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.55407259145995e-06</v>
+        <v>3.792397312404148e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.68333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>604833.3252278505</v>
+        <v>676057.1766491057</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>490.6302531997255</v>
+        <v>548.1774020989642</v>
       </c>
       <c r="AB5" t="n">
-        <v>671.3019575070034</v>
+        <v>750.0405054319716</v>
       </c>
       <c r="AC5" t="n">
-        <v>607.2338408607493</v>
+        <v>678.4576922820045</v>
       </c>
       <c r="AD5" t="n">
-        <v>490630.2531997255</v>
+        <v>548177.4020989642</v>
       </c>
       <c r="AE5" t="n">
-        <v>671301.9575070034</v>
+        <v>750040.5054319716</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.555005529214044e-06</v>
+        <v>3.79378257868166e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.67916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>607233.8408607492</v>
+        <v>678457.6922820045</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1476.692844334394</v>
+        <v>1568.551160326487</v>
       </c>
       <c r="AB2" t="n">
-        <v>2020.476296708758</v>
+        <v>2146.160897152031</v>
       </c>
       <c r="AC2" t="n">
-        <v>1827.644874707167</v>
+        <v>1941.334313283578</v>
       </c>
       <c r="AD2" t="n">
-        <v>1476692.844334394</v>
+        <v>1568551.160326487</v>
       </c>
       <c r="AE2" t="n">
-        <v>2020476.296708758</v>
+        <v>2146160.897152031</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.415777910287473e-06</v>
+        <v>2.081819980317668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.41875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1827644.874707167</v>
+        <v>1941334.313283578</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>675.0442001960051</v>
+        <v>733.4684917015114</v>
       </c>
       <c r="AB3" t="n">
-        <v>923.6252555564608</v>
+        <v>1003.563948692125</v>
       </c>
       <c r="AC3" t="n">
-        <v>835.4757574823393</v>
+        <v>907.7852139397963</v>
       </c>
       <c r="AD3" t="n">
-        <v>675044.2001960052</v>
+        <v>733468.4917015114</v>
       </c>
       <c r="AE3" t="n">
-        <v>923625.2555564608</v>
+        <v>1003563.948692125</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.213019468937462e-06</v>
+        <v>3.254117834294033e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.34166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>835475.7574823393</v>
+        <v>907785.2139397963</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>523.1383555586013</v>
+        <v>581.5625575555566</v>
       </c>
       <c r="AB4" t="n">
-        <v>715.7809773106759</v>
+        <v>795.7195479767919</v>
       </c>
       <c r="AC4" t="n">
-        <v>647.4678454410554</v>
+        <v>719.7771911172857</v>
       </c>
       <c r="AD4" t="n">
-        <v>523138.3555586014</v>
+        <v>581562.5575555566</v>
       </c>
       <c r="AE4" t="n">
-        <v>715780.9773106759</v>
+        <v>795719.5479767919</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.494712501986159e-06</v>
+        <v>3.668331236167203e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.72291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>647467.8454410554</v>
+        <v>719777.1911172858</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>505.1902868218647</v>
+        <v>555.4266644063166</v>
       </c>
       <c r="AB5" t="n">
-        <v>691.2236378521634</v>
+        <v>759.9592659357728</v>
       </c>
       <c r="AC5" t="n">
-        <v>625.2542239940211</v>
+        <v>687.4298202043906</v>
       </c>
       <c r="AD5" t="n">
-        <v>505190.2868218647</v>
+        <v>555426.6644063166</v>
       </c>
       <c r="AE5" t="n">
-        <v>691223.6378521634</v>
+        <v>759959.2659357728</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.537827227974683e-06</v>
+        <v>3.731728960737298e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.50625</v>
       </c>
       <c r="AH5" t="n">
-        <v>625254.2239940211</v>
+        <v>687429.8202043906</v>
       </c>
     </row>
     <row r="6">
@@ -7472,28 +7472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>507.2648991917316</v>
+        <v>557.5012767761834</v>
       </c>
       <c r="AB6" t="n">
-        <v>694.0622140220535</v>
+        <v>762.7978421056628</v>
       </c>
       <c r="AC6" t="n">
-        <v>627.8218904382235</v>
+        <v>689.9974866485929</v>
       </c>
       <c r="AD6" t="n">
-        <v>507264.8991917316</v>
+        <v>557501.2767761834</v>
       </c>
       <c r="AE6" t="n">
-        <v>694062.2140220535</v>
+        <v>762797.8421056628</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.538131925684849e-06</v>
+        <v>3.732177001193624e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.50416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>627821.8904382235</v>
+        <v>689997.486648593</v>
       </c>
     </row>
   </sheetData>
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2407.669076270502</v>
+        <v>2527.731757841089</v>
       </c>
       <c r="AB2" t="n">
-        <v>3294.279049016582</v>
+        <v>3458.554106733152</v>
       </c>
       <c r="AC2" t="n">
-        <v>2979.877680127998</v>
+        <v>3128.474556897585</v>
       </c>
       <c r="AD2" t="n">
-        <v>2407669.076270502</v>
+        <v>2527731.757841089</v>
       </c>
       <c r="AE2" t="n">
-        <v>3294279.049016582</v>
+        <v>3458554.106733152</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.083174961586825e-06</v>
+        <v>1.567107754332215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.28333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2979877.680127998</v>
+        <v>3128474.556897585</v>
       </c>
     </row>
     <row r="3">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>876.6913198615075</v>
+        <v>945.3472815281409</v>
       </c>
       <c r="AB3" t="n">
-        <v>1199.527740725869</v>
+        <v>1293.465856365417</v>
       </c>
       <c r="AC3" t="n">
-        <v>1085.046496698749</v>
+        <v>1170.019290424633</v>
       </c>
       <c r="AD3" t="n">
-        <v>876691.3198615075</v>
+        <v>945347.2815281409</v>
       </c>
       <c r="AE3" t="n">
-        <v>1199527.740725869</v>
+        <v>1293465.856365418</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.945185771364447e-06</v>
+        <v>2.814241294366894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.74791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1085046.496698749</v>
+        <v>1170019.290424633</v>
       </c>
     </row>
     <row r="4">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>668.9422097652335</v>
+        <v>729.0161762235377</v>
       </c>
       <c r="AB4" t="n">
-        <v>915.2762430482604</v>
+        <v>997.4720942328655</v>
       </c>
       <c r="AC4" t="n">
-        <v>827.923563010009</v>
+        <v>902.2747575201569</v>
       </c>
       <c r="AD4" t="n">
-        <v>668942.2097652336</v>
+        <v>729016.1762235378</v>
       </c>
       <c r="AE4" t="n">
-        <v>915276.2430482605</v>
+        <v>997472.0942328655</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.261785783894509e-06</v>
+        <v>3.272289488105322e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.54583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>827923.563010009</v>
+        <v>902274.7575201569</v>
       </c>
     </row>
     <row r="5">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>564.8449486028936</v>
+        <v>624.8335742066263</v>
       </c>
       <c r="AB5" t="n">
-        <v>772.8457778789033</v>
+        <v>854.9248619413104</v>
       </c>
       <c r="AC5" t="n">
-        <v>699.0864615340018</v>
+        <v>773.332033012211</v>
       </c>
       <c r="AD5" t="n">
-        <v>564844.9486028936</v>
+        <v>624833.5742066263</v>
       </c>
       <c r="AE5" t="n">
-        <v>772845.7778789033</v>
+        <v>854924.8619413103</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.439569999012412e-06</v>
+        <v>3.529502802656998e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.55833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>699086.4615340019</v>
+        <v>773332.033012211</v>
       </c>
     </row>
     <row r="6">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>541.178963098268</v>
+        <v>592.5856830022226</v>
       </c>
       <c r="AB6" t="n">
-        <v>740.464932441881</v>
+        <v>810.801874518893</v>
       </c>
       <c r="AC6" t="n">
-        <v>669.7959985386868</v>
+        <v>733.420081582387</v>
       </c>
       <c r="AD6" t="n">
-        <v>541178.963098268</v>
+        <v>592585.6830022226</v>
       </c>
       <c r="AE6" t="n">
-        <v>740464.932441881</v>
+        <v>810801.874518893</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.489567214182045e-06</v>
+        <v>3.601837398974261e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.30625</v>
       </c>
       <c r="AH6" t="n">
-        <v>669795.9985386868</v>
+        <v>733420.081582387</v>
       </c>
     </row>
     <row r="7">
@@ -8299,28 +8299,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>543.2877173740661</v>
+        <v>594.6944372780207</v>
       </c>
       <c r="AB7" t="n">
-        <v>743.3502230737007</v>
+        <v>813.6871651507128</v>
       </c>
       <c r="AC7" t="n">
-        <v>672.4059210821365</v>
+        <v>736.0300041258369</v>
       </c>
       <c r="AD7" t="n">
-        <v>543287.7173740661</v>
+        <v>594694.4372780207</v>
       </c>
       <c r="AE7" t="n">
-        <v>743350.2230737007</v>
+        <v>813687.1651507127</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.488831961017786e-06</v>
+        <v>3.600773654910771e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.31041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>672405.9210821365</v>
+        <v>736030.0041258369</v>
       </c>
     </row>
   </sheetData>
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>913.4565089968306</v>
+        <v>986.2335407496006</v>
       </c>
       <c r="AB2" t="n">
-        <v>1249.831494466491</v>
+        <v>1349.408240006672</v>
       </c>
       <c r="AC2" t="n">
-        <v>1130.549330784128</v>
+        <v>1220.622611486794</v>
       </c>
       <c r="AD2" t="n">
-        <v>913456.5089968307</v>
+        <v>986233.5407496006</v>
       </c>
       <c r="AE2" t="n">
-        <v>1249831.494466491</v>
+        <v>1349408.240006672</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.824719755907128e-06</v>
+        <v>2.740153582371091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.16458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1130549.330784128</v>
+        <v>1220622.611486794</v>
       </c>
     </row>
     <row r="3">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>496.9667408462039</v>
+        <v>545.5416857539485</v>
       </c>
       <c r="AB3" t="n">
-        <v>679.9718194510209</v>
+        <v>746.4342020491227</v>
       </c>
       <c r="AC3" t="n">
-        <v>615.0762633490572</v>
+        <v>675.195569432536</v>
       </c>
       <c r="AD3" t="n">
-        <v>496966.7408462039</v>
+        <v>545541.6857539485</v>
       </c>
       <c r="AE3" t="n">
-        <v>679971.8194510209</v>
+        <v>746434.2020491228</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.523108572684136e-06</v>
+        <v>3.788913323139102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.13541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>615076.2633490572</v>
+        <v>675195.569432536</v>
       </c>
     </row>
     <row r="4">
@@ -8808,28 +8808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>472.8810858616116</v>
+        <v>529.4664096394323</v>
       </c>
       <c r="AB4" t="n">
-        <v>647.0167637169969</v>
+        <v>724.4393000781117</v>
       </c>
       <c r="AC4" t="n">
-        <v>585.2663918815773</v>
+        <v>655.2998300355995</v>
       </c>
       <c r="AD4" t="n">
-        <v>472881.0858616115</v>
+        <v>529466.4096394323</v>
       </c>
       <c r="AE4" t="n">
-        <v>647016.7637169969</v>
+        <v>724439.3000781117</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.568607251863686e-06</v>
+        <v>3.857237989621939e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.90208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>585266.3918815773</v>
+        <v>655299.8300355995</v>
       </c>
     </row>
   </sheetData>
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>604.2267898601193</v>
+        <v>667.0923257967628</v>
       </c>
       <c r="AB2" t="n">
-        <v>826.7297504912558</v>
+        <v>912.7451501914778</v>
       </c>
       <c r="AC2" t="n">
-        <v>747.8278234268621</v>
+        <v>825.6340341030669</v>
       </c>
       <c r="AD2" t="n">
-        <v>604226.7898601193</v>
+        <v>667092.3257967628</v>
       </c>
       <c r="AE2" t="n">
-        <v>826729.7504912558</v>
+        <v>912745.1501914778</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.224063430340358e-06</v>
+        <v>3.411150055591265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.52291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>747827.8234268621</v>
+        <v>825634.0341030669</v>
       </c>
     </row>
     <row r="3">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>457.9520184426863</v>
+        <v>512.7887701866572</v>
       </c>
       <c r="AB3" t="n">
-        <v>626.5901550504524</v>
+        <v>701.6202180132997</v>
       </c>
       <c r="AC3" t="n">
-        <v>566.7892700772423</v>
+        <v>634.6585691362703</v>
       </c>
       <c r="AD3" t="n">
-        <v>457952.0184426862</v>
+        <v>512788.7701866571</v>
       </c>
       <c r="AE3" t="n">
-        <v>626590.1550504523</v>
+        <v>701620.2180132996</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.561128106393728e-06</v>
+        <v>3.928121906650995e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.47916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>566789.2700772424</v>
+        <v>634658.5691362703</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.2800790960338</v>
+        <v>519.8726483806531</v>
       </c>
       <c r="AB2" t="n">
-        <v>637.9849750444682</v>
+        <v>711.3126926769745</v>
       </c>
       <c r="AC2" t="n">
-        <v>577.0965844437596</v>
+        <v>643.4260076215177</v>
       </c>
       <c r="AD2" t="n">
-        <v>466280.0790960338</v>
+        <v>519872.6483806531</v>
       </c>
       <c r="AE2" t="n">
-        <v>637984.9750444682</v>
+        <v>711312.6926769745</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.474515890859381e-06</v>
+        <v>3.866382268737275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.43125</v>
       </c>
       <c r="AH2" t="n">
-        <v>577096.5844437596</v>
+        <v>643426.0076215176</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>457.5486489877205</v>
+        <v>511.1412182723398</v>
       </c>
       <c r="AB3" t="n">
-        <v>626.0382471667638</v>
+        <v>699.36596479927</v>
       </c>
       <c r="AC3" t="n">
-        <v>566.2900355073654</v>
+        <v>632.6194586851235</v>
       </c>
       <c r="AD3" t="n">
-        <v>457548.6489877205</v>
+        <v>511141.2182723398</v>
       </c>
       <c r="AE3" t="n">
-        <v>626038.2471667638</v>
+        <v>699365.96479927</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.510515082898208e-06</v>
+        <v>3.922630296200719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.225</v>
       </c>
       <c r="AH3" t="n">
-        <v>566290.0355073654</v>
+        <v>632619.4586851235</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>485.1541465690831</v>
+        <v>550.6093598009732</v>
       </c>
       <c r="AB2" t="n">
-        <v>663.8093068261845</v>
+        <v>753.3680172502619</v>
       </c>
       <c r="AC2" t="n">
-        <v>600.4562782449061</v>
+        <v>681.4676310425494</v>
       </c>
       <c r="AD2" t="n">
-        <v>485154.1465690831</v>
+        <v>550609.3598009732</v>
       </c>
       <c r="AE2" t="n">
-        <v>663809.3068261845</v>
+        <v>753368.017250262</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.222243566734701e-06</v>
+        <v>3.621537302632837e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.24791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>600456.2782449061</v>
+        <v>681467.6310425494</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1313.221034722148</v>
+        <v>1404.319594552989</v>
       </c>
       <c r="AB2" t="n">
-        <v>1796.806954930032</v>
+        <v>1921.452023475403</v>
       </c>
       <c r="AC2" t="n">
-        <v>1625.32222098591</v>
+        <v>1738.071339129762</v>
       </c>
       <c r="AD2" t="n">
-        <v>1313221.034722148</v>
+        <v>1404319.594552989</v>
       </c>
       <c r="AE2" t="n">
-        <v>1796806.954930032</v>
+        <v>1921452.023475403</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.50884662023576e-06</v>
+        <v>2.229141034076134e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.24375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1625322.220985909</v>
+        <v>1738071.339129762</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>620.2881033854583</v>
+        <v>686.4949867900848</v>
       </c>
       <c r="AB3" t="n">
-        <v>848.7055482317689</v>
+        <v>939.2927269475317</v>
       </c>
       <c r="AC3" t="n">
-        <v>767.7062818742462</v>
+        <v>849.6479473932807</v>
       </c>
       <c r="AD3" t="n">
-        <v>620288.1033854582</v>
+        <v>686494.9867900847</v>
       </c>
       <c r="AE3" t="n">
-        <v>848705.5482317689</v>
+        <v>939292.7269475317</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.290197133957684e-06</v>
+        <v>3.383493284844909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.99583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>767706.2818742462</v>
+        <v>849647.9473932807</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>501.9035317866108</v>
+        <v>559.8985604065875</v>
       </c>
       <c r="AB4" t="n">
-        <v>686.7265546115307</v>
+        <v>766.0779113294712</v>
       </c>
       <c r="AC4" t="n">
-        <v>621.1863360661781</v>
+        <v>692.9645106692873</v>
       </c>
       <c r="AD4" t="n">
-        <v>501903.5317866108</v>
+        <v>559898.5604065876</v>
       </c>
       <c r="AE4" t="n">
-        <v>686726.5546115306</v>
+        <v>766077.9113294713</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.532849705863843e-06</v>
+        <v>3.741983536806775e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH4" t="n">
-        <v>621186.3360661782</v>
+        <v>692964.5106692873</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>497.6864479711448</v>
+        <v>555.6814765911215</v>
       </c>
       <c r="AB5" t="n">
-        <v>680.9565544906023</v>
+        <v>760.3079112085431</v>
       </c>
       <c r="AC5" t="n">
-        <v>615.9670166585454</v>
+        <v>687.7451912616543</v>
       </c>
       <c r="AD5" t="n">
-        <v>497686.4479711448</v>
+        <v>555681.4765911215</v>
       </c>
       <c r="AE5" t="n">
-        <v>680956.5544906023</v>
+        <v>760307.9112085431</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.546390242533305e-06</v>
+        <v>3.761988065768503e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5875</v>
       </c>
       <c r="AH5" t="n">
-        <v>615967.0166585454</v>
+        <v>687745.1912616544</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2125.473108384911</v>
+        <v>2244.793527300234</v>
       </c>
       <c r="AB2" t="n">
-        <v>2908.166076147874</v>
+        <v>3071.425537353361</v>
       </c>
       <c r="AC2" t="n">
-        <v>2630.614787477044</v>
+        <v>2778.292994841056</v>
       </c>
       <c r="AD2" t="n">
-        <v>2125473.108384911</v>
+        <v>2244793.527300234</v>
       </c>
       <c r="AE2" t="n">
-        <v>2908166.076147874</v>
+        <v>3071425.537353361</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.159649178039943e-06</v>
+        <v>1.684006605349028e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.63958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2630614.787477044</v>
+        <v>2778292.994841056</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>827.0311063476111</v>
+        <v>895.0923768726719</v>
       </c>
       <c r="AB3" t="n">
-        <v>1131.580445742159</v>
+        <v>1224.704878725886</v>
       </c>
       <c r="AC3" t="n">
-        <v>1023.583996183657</v>
+        <v>1107.82076398438</v>
       </c>
       <c r="AD3" t="n">
-        <v>827031.1063476111</v>
+        <v>895092.3768726719</v>
       </c>
       <c r="AE3" t="n">
-        <v>1131580.445742159</v>
+        <v>1224704.878725886</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.006440695209885e-06</v>
+        <v>2.913691009280533e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.39583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1023583.996183657</v>
+        <v>1107820.76398438</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>630.6200320653547</v>
+        <v>690.152319749709</v>
       </c>
       <c r="AB4" t="n">
-        <v>862.8421488641267</v>
+        <v>944.2968512530323</v>
       </c>
       <c r="AC4" t="n">
-        <v>780.4937051830956</v>
+        <v>854.1744850983969</v>
       </c>
       <c r="AD4" t="n">
-        <v>630620.0320653548</v>
+        <v>690152.319749709</v>
       </c>
       <c r="AE4" t="n">
-        <v>862842.1488641266</v>
+        <v>944296.8512530323</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.323301747948839e-06</v>
+        <v>3.373826812327569e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.29583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>780493.7051830955</v>
+        <v>854174.4850983969</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>544.7838433757239</v>
+        <v>595.8724890739433</v>
       </c>
       <c r="AB5" t="n">
-        <v>745.3972886735897</v>
+        <v>815.2990275898711</v>
       </c>
       <c r="AC5" t="n">
-        <v>674.2576176142468</v>
+        <v>737.4880326760651</v>
       </c>
       <c r="AD5" t="n">
-        <v>544783.8433757239</v>
+        <v>595872.4890739432</v>
       </c>
       <c r="AE5" t="n">
-        <v>745397.2886735897</v>
+        <v>815299.0275898711</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.476765102925356e-06</v>
+        <v>3.596681541458914e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.47291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>674257.6176142468</v>
+        <v>737488.0326760651</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>530.8376090349319</v>
+        <v>581.9262547331513</v>
       </c>
       <c r="AB6" t="n">
-        <v>726.3154355840821</v>
+        <v>796.2171745003639</v>
       </c>
       <c r="AC6" t="n">
-        <v>656.9969098020529</v>
+        <v>720.2273248638713</v>
       </c>
       <c r="AD6" t="n">
-        <v>530837.6090349319</v>
+        <v>581926.2547331513</v>
       </c>
       <c r="AE6" t="n">
-        <v>726315.4355840822</v>
+        <v>796217.1745003639</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.505530214872645e-06</v>
+        <v>3.638453345759861e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.32916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>656996.9098020529</v>
+        <v>720227.3248638713</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>533.0111391922442</v>
+        <v>584.0997848904633</v>
       </c>
       <c r="AB7" t="n">
-        <v>729.2893554346997</v>
+        <v>799.1910943509811</v>
       </c>
       <c r="AC7" t="n">
-        <v>659.6870029160501</v>
+        <v>722.9174179778686</v>
       </c>
       <c r="AD7" t="n">
-        <v>533011.1391922442</v>
+        <v>584099.7848904633</v>
       </c>
       <c r="AE7" t="n">
-        <v>729289.3554346997</v>
+        <v>799191.0943509811</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.505381941099721e-06</v>
+        <v>3.638238027180991e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.32916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>659687.0029160501</v>
+        <v>722917.4179778686</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>533.885660976589</v>
+        <v>612.0726237948895</v>
       </c>
       <c r="AB2" t="n">
-        <v>730.4859147212185</v>
+        <v>837.4647666145728</v>
       </c>
       <c r="AC2" t="n">
-        <v>660.7693642636451</v>
+        <v>757.5383046780594</v>
       </c>
       <c r="AD2" t="n">
-        <v>533885.660976589</v>
+        <v>612072.6237948895</v>
       </c>
       <c r="AE2" t="n">
-        <v>730485.9147212185</v>
+        <v>837464.7666145728</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.932856972014236e-06</v>
+        <v>3.221957414581406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.53541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>660769.3642636451</v>
+        <v>757538.3046780594</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>699.9641820801058</v>
+        <v>763.4192585406124</v>
       </c>
       <c r="AB2" t="n">
-        <v>957.7218741622969</v>
+        <v>1044.543909215961</v>
       </c>
       <c r="AC2" t="n">
-        <v>866.3182426633391</v>
+        <v>944.8541045469726</v>
       </c>
       <c r="AD2" t="n">
-        <v>699964.1820801059</v>
+        <v>763419.2585406124</v>
       </c>
       <c r="AE2" t="n">
-        <v>957721.8741622969</v>
+        <v>1044543.909215961</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.079295648765375e-06</v>
+        <v>3.164493816373439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.3625</v>
       </c>
       <c r="AH2" t="n">
-        <v>866318.2426633391</v>
+        <v>944854.1045469727</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>466.0264111492663</v>
+        <v>521.4536057793853</v>
       </c>
       <c r="AB3" t="n">
-        <v>637.6378953686607</v>
+        <v>713.4758283368376</v>
       </c>
       <c r="AC3" t="n">
-        <v>576.7826295650819</v>
+        <v>645.3826966499834</v>
       </c>
       <c r="AD3" t="n">
-        <v>466026.4111492663</v>
+        <v>521453.6057793853</v>
       </c>
       <c r="AE3" t="n">
-        <v>637637.8953686607</v>
+        <v>713475.8283368376</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.566582086833063e-06</v>
+        <v>3.906098273143904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.25416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>576782.6295650819</v>
+        <v>645382.6966499834</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>467.4932309154737</v>
+        <v>522.9204255455926</v>
       </c>
       <c r="AB4" t="n">
-        <v>639.6448628843067</v>
+        <v>715.4827958524836</v>
       </c>
       <c r="AC4" t="n">
-        <v>578.5980549178312</v>
+        <v>647.1981220027326</v>
       </c>
       <c r="AD4" t="n">
-        <v>467493.2309154737</v>
+        <v>522920.4255455926</v>
       </c>
       <c r="AE4" t="n">
-        <v>639644.8628843067</v>
+        <v>715482.7958524836</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.5701746812156e-06</v>
+        <v>3.911565866323847e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.2375</v>
       </c>
       <c r="AH4" t="n">
-        <v>578598.0549178312</v>
+        <v>647198.1220027326</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1035.203967557449</v>
+        <v>1108.70004744328</v>
       </c>
       <c r="AB2" t="n">
-        <v>1416.411738387925</v>
+        <v>1516.972317305926</v>
       </c>
       <c r="AC2" t="n">
-        <v>1281.231390022541</v>
+        <v>1372.194608426267</v>
       </c>
       <c r="AD2" t="n">
-        <v>1035203.967557449</v>
+        <v>1108700.04744328</v>
       </c>
       <c r="AE2" t="n">
-        <v>1416411.738387925</v>
+        <v>1516972.317305926</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.711368564046739e-06</v>
+        <v>2.554920430677343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.13958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1281231.390022541</v>
+        <v>1372194.608426268</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>533.6362077420097</v>
+        <v>590.6291636126358</v>
       </c>
       <c r="AB3" t="n">
-        <v>730.1446018005671</v>
+        <v>808.1248783745167</v>
       </c>
       <c r="AC3" t="n">
-        <v>660.460625769105</v>
+        <v>730.9985741928425</v>
       </c>
       <c r="AD3" t="n">
-        <v>533636.2077420097</v>
+        <v>590629.1636126358</v>
       </c>
       <c r="AE3" t="n">
-        <v>730144.6018005671</v>
+        <v>808124.8783745167</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.450472249814651e-06</v>
+        <v>3.658336227150856e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.36666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>660460.625769105</v>
+        <v>730998.5741928425</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>480.8930901760432</v>
+        <v>537.97129739269</v>
       </c>
       <c r="AB4" t="n">
-        <v>657.9791414846866</v>
+        <v>736.0760627112854</v>
       </c>
       <c r="AC4" t="n">
-        <v>595.1825357009124</v>
+        <v>665.8259963753619</v>
       </c>
       <c r="AD4" t="n">
-        <v>480893.0901760432</v>
+        <v>537971.29739269</v>
       </c>
       <c r="AE4" t="n">
-        <v>657979.1414846865</v>
+        <v>736076.0627112854</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.560685328675172e-06</v>
+        <v>3.822874511202746e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.79166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>595182.5357009124</v>
+        <v>665825.9963753619</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>481.9388020644654</v>
+        <v>539.0170092811121</v>
       </c>
       <c r="AB5" t="n">
-        <v>659.4099306239784</v>
+        <v>737.5068518505773</v>
       </c>
       <c r="AC5" t="n">
-        <v>596.4767723328754</v>
+        <v>667.1202330073251</v>
       </c>
       <c r="AD5" t="n">
-        <v>481938.8020644654</v>
+        <v>539017.0092811121</v>
       </c>
       <c r="AE5" t="n">
-        <v>659409.9306239784</v>
+        <v>737506.8518505773</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.564301449664889e-06</v>
+        <v>3.82827305689917e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.77291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>596476.7723328754</v>
+        <v>667120.2330073251</v>
       </c>
     </row>
   </sheetData>
